--- a/data_excel/594.xlsx
+++ b/data_excel/594.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>媽媽</t>
   </si>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,12 +251,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -554,7 +563,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" activeCellId="3" sqref="A7:C7 E2 F2 G2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,7 +696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -698,15 +707,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,7 +729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -728,15 +737,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/594.xlsx
+++ b/data_excel/594.xlsx
@@ -102,9 +102,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -141,6 +138,10 @@
   </si>
   <si>
     <t>特點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +564,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -599,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,13 +688,13 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -715,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,16 +742,16 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>

--- a/data_excel/594.xlsx
+++ b/data_excel/594.xlsx
@@ -137,11 +137,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +564,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>35</v>
